--- a/docs/ZorZap-Risk-Analysis.xlsx
+++ b/docs/ZorZap-Risk-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nassim\Desktop\Dev\C#\ZorZap\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ED276E-22F6-4820-9BA8-9CC547382F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57728AF3-4354-455F-8980-E2FCAFBAACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="856" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide risk management" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,17 @@
     <sheet name="Objectifs de l'étude" sheetId="3" r:id="rId3"/>
     <sheet name="Identification de l'objet" sheetId="4" r:id="rId4"/>
     <sheet name="Mission, VM, BS" sheetId="5" r:id="rId5"/>
-    <sheet name="ER, impact, gravité" sheetId="6" r:id="rId6"/>
-    <sheet name="Socle de sécurité" sheetId="8" r:id="rId7"/>
+    <sheet name="Socle de sécurité" sheetId="8" r:id="rId6"/>
+    <sheet name="ER, impact, gravité" sheetId="6" r:id="rId7"/>
     <sheet name="SR_OV" sheetId="9" r:id="rId8"/>
     <sheet name="SR_OV retenus" sheetId="10" r:id="rId9"/>
+    <sheet name="Partie prenante" sheetId="11" r:id="rId10"/>
+    <sheet name="Cartographie menace numériques" sheetId="12" r:id="rId11"/>
+    <sheet name="Scénarios stratégiques" sheetId="13" r:id="rId12"/>
+    <sheet name="Synthèse scénarios stratégiques" sheetId="14" r:id="rId13"/>
+    <sheet name="Scénario opérationnels" sheetId="15" r:id="rId14"/>
+    <sheet name="Vraisemblance op" sheetId="16" r:id="rId15"/>
+    <sheet name="Echelle vraisemblance op" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="280">
   <si>
     <t>ATELIERS</t>
   </si>
@@ -645,135 +652,348 @@
     <t>LEGENDE PERTINENCE</t>
   </si>
   <si>
-    <t>SR-01 : Attaquant Externe Opportuniste (Profil : Cybercriminel sans connaissance préalable, utilisant des outils automatisés pour trouver des failles connues.)</t>
-  </si>
-  <si>
-    <t>SR-02 : Attaquant Externe Ciblé (Profil : Acteur étatique ou concurrent qui cherche spécifiquement à nuire au projet ou à l'entreprise, avec des ressources et des compétences élevées.)</t>
-  </si>
-  <si>
-    <t>SR-03 : Développeur (Agissant par Inadvertance) (Profil : Personne légitime avec des accès, agissant sans intention malveillante, par erreur ou manque de connaissance.)</t>
-  </si>
-  <si>
-    <t>SR-04 : Utilisateur Légitime Curieux / Abusif (Profil : Employé d'une équipe qui a un accès légitime à ZorZap, mais qui tente d'outrepasser ses droits.)</t>
-  </si>
-  <si>
-    <t>SR-05 : Administrateur Système (Agissant par Inadvertance) (Profil : Personne en charge de l'infrastructure, qui fait une erreur de configuration.)</t>
-  </si>
-  <si>
-    <t>OV-10 : Exposer un port de service sensible (ex: la base de données) sur internet par une mauvaise configuration du pare-feu ou de Docker.</t>
-  </si>
-  <si>
-    <t>SR-06 : Attaquant de la Supply Chain (Profil : Acteur malveillant qui ne cible pas directement ZorZap, mais qui compromet une de ses dépendances.)</t>
-  </si>
-  <si>
-    <t>SR-07 : Employé Mécontent sur le Départ (Profil : Personne ayant des connaissances internes et des accès légitimes, cherchant à saboter le projet avant de quitter l'entreprise.)</t>
-  </si>
-  <si>
-    <t>OV-13 : Effacer ou corrompre délibérément la base de données de production contenant tous les historiques de scan. OV-14 : Introduire une porte dérobée (backdoor) subtile dans le code source de l'application, difficile à détecter par les scans automatisés.</t>
-  </si>
-  <si>
-    <t>OV-01 : Obtenir une exécution de code à distance (RCE) via une dépendance vulnérable (Log4Shell, etc.) pour prendre le contrôle du conteneur. 
-OV-02 : Exfiltrer en masse la base de données des rapports de scan via une injection SQL. 
-OV-03 : Rendre le service indisponible (DDoS) en saturant l'API avec des requêtes de scan coûteuses en ressources.</t>
-  </si>
-  <si>
-    <t>OV-11 : Publier une version malveillante d'un paquet NuGet utilisé par le projet. 
-OV-12 : Compromettre une des images Docker de base (ex: postgres:15-alpine) pour y inclure un mineur de cryptomonnaie ou un keylogger.</t>
-  </si>
-  <si>
-    <t>OV-06 : Exposer accidentellement un secret (clé d'API, mot de passe) en le commitant dans le code source sur une branche publique. 
-OV-07 : Créer une faille de contrôle d'accès (Broken Access Control) dans le code de l'API par erreur de logique.</t>
-  </si>
-  <si>
-    <t>OV-04 : Compromettre le pipeline CI/CD via un plugin Jenkins vulnérable pour injecter un spyware persistant dans l'application ZorZap. 
-OV-05 : Altérer subtilement les résultats des scans en base de données pour dissimuler des vulnérabilités critiques et donner un faux sentiment de sécurité.</t>
-  </si>
-  <si>
-    <t>OV-08 : Lire les rapports de vulnérabilités d'une autre équipe en exploitant une faille de contrôle d'accès.
-OV-09 : Utiliser la fonctionnalité de scan de ZorZap pour scanner des cibles externes de manière anonyme, en faisant porter la responsabilité à l'outil.</t>
-  </si>
-  <si>
     <t>SR-01 : Attaquant Externe Opportuniste</t>
   </si>
   <si>
-    <t>OV-01 : Obtenir une exécution de code à distance (RCE) via une dépendance vulnérable.</t>
-  </si>
-  <si>
-    <t>Gain financier (installation de ransomware, cryptomining), utilisation du serveur pour des attaques par rebond.</t>
-  </si>
-  <si>
-    <t>Outils de scan de vulnérabilités automatisés, bases de données de failles publiques (CVE).</t>
-  </si>
-  <si>
-    <t>Scan de masse des adresses IP et des ports pour identifier les services exposés, puis test systématique des exploits connus.</t>
-  </si>
-  <si>
     <t>SR-02 : Attaquant Externe Ciblé</t>
   </si>
   <si>
-    <t>OV-04 : Compromettre le pipeline CI/CD via un plugin Jenkins vulnérable pour y injecter un spyware.</t>
-  </si>
-  <si>
-    <t>Espionnage industriel, sabotage du projet, vol de propriété intellectuelle (le code source de ZorZap).</t>
-  </si>
-  <si>
-    <t>Compétences techniques élevées, temps, financement, outils d'intrusion spécifiques.</t>
-  </si>
-  <si>
-    <t>Analyse ciblée de l'infrastructure exposée, recherche de vulnérabilités spécifiques à la version de Jenkins utilisée, développement d'un exploit sur mesure.</t>
-  </si>
-  <si>
     <t>SR-03 : Développeur (Agissant par Inadvertance)</t>
   </si>
   <si>
-    <t>OV-06 : Exposer accidentellement un secret (clé d'API, mot de passe) en le commitant dans le code source sur une branche publique.</t>
-  </si>
-  <si>
-    <t>Développement d'une fonctionnalité dans l'urgence, ajout d'une clé en dur pour un test local, et oubli de la retirer avant le git push.</t>
-  </si>
-  <si>
     <t>SR-04 : Utilisateur Légitime Curieux / Abusif</t>
   </si>
   <si>
-    <t>OV-08 : Lire les rapports de vulnérabilités d'une autre équipe en exploitant une faille de contrôle d'accès.</t>
-  </si>
-  <si>
-    <t>Curiosité, volonté de nuire à une autre équipe, ou simplement tester les limites de l'application.</t>
-  </si>
-  <si>
-    <t>Accès légitime à l'application ZorZap avec un compte standard.</t>
-  </si>
-  <si>
-    <t>Manipulation des identifiants dans les requêtes API (ex: changer GET /api/scans/123 en GET /api/scans/124), analyse des réponses de l'API.</t>
-  </si>
-  <si>
     <t>SR-06 : Attaquant de la Supply Chain</t>
   </si>
   <si>
-    <t>OV-11 : Publier une version malveillante d'un paquet NuGet critique utilisé par le projet ZorZap.</t>
-  </si>
-  <si>
-    <t>Compromission à grande échelle de tous les projets qui utilisent ce paquet, vol de données, installation de portes dérobées.</t>
-  </si>
-  <si>
-    <t>Compétences avancées en ingénierie logicielle, capacité à compromettre le compte d'un mainteneur de paquet légitime (phishing, etc.).</t>
-  </si>
-  <si>
-    <t>Prise de contrôle du paquet sur nuget.org, ajout de code malveillant discret, et publication d'une nouvelle version mineure pour que les builds automatiques l'intègrent.</t>
-  </si>
-  <si>
-    <t>Accès légitime en écriture au repo Git.</t>
-  </si>
-  <si>
-    <t>Pas de motivation malveillante. 
-Cause : manque de temps, oubli, méconnaissance des bonnes pratiques de sécurité.</t>
+    <t>SR-01 : Attaquant Externe</t>
+  </si>
+  <si>
+    <t>SR-02 : Personne Interne (Développeur, Admin)</t>
+  </si>
+  <si>
+    <t>SR-03 : Utilisateur Légitime (Abusif)</t>
+  </si>
+  <si>
+    <t>OV-07 : Consulter des informations confidentielles (rapports d'autres équipes) au-delà des droits accordés.</t>
+  </si>
+  <si>
+    <t>SR-04 : Attaquant de la Supply Chain</t>
+  </si>
+  <si>
+    <t>OV-08 : Compromettre l'intégrité de l'application ZorZap elle-même en injectant du code malveillant via une dépendance (logicielle ou pipeline).</t>
+  </si>
+  <si>
+    <t>OV-01 : Porter atteinte à l'intégrité des données de scan pour induire en erreur les équipes. 
+OV-02 : Porter atteinte à la confidentialité des données en exfiltrant les rapports de vulnérabilités. OV-03 : Porter atteinte à la disponibilité du service ZorZap pour perturber les cycles de développement. 
+OV-04 : Détourner le système ZorZap pour l'utiliser comme une plateforme d'attaque contre d'autres cibles (internes ou externes).</t>
+  </si>
+  <si>
+    <t>OV-05 : (Inadvertance) Exposer involontairement des informations ou des accès sensibles qui pourraient être exploités par d'autres sources de risque. 
+OV-06 : (Malveillance) Saboter le processus DevSecOps en altérant délibérément le code, le pipeline ou les résultats pour nuire au projet.</t>
+  </si>
+  <si>
+    <t>OV-02 : Porter atteinte à la confidentialité des données en exfiltrant les rapports de vulnérabilités.</t>
+  </si>
+  <si>
+    <t>Financière : Vente des rapports de vulnérabilités sur le marché noir. Stratégique : Utiliser les rapports pour attaquer plus facilement les applications scannées par ZorZap.</t>
+  </si>
+  <si>
+    <t>Outils de scan de vulnérabilités automatisés (ex: Nmap, Burp Suite), bases de données d'exploits publics, connaissance des failles du Top 10 OWASP.</t>
+  </si>
+  <si>
+    <t>Scan des services web exposés sur internet, recherche de vulnérabilités classiques (injection SQL, Broken Access Control) permettant d'accéder à la base de données.</t>
+  </si>
+  <si>
+    <t>SR-02 : Personne Interne (Développeur, par Inadvertance)</t>
+  </si>
+  <si>
+    <t>OV-05 : Exposer involontairement des informations ou des accès sensibles (secrets, clés d'API).</t>
+  </si>
+  <si>
+    <t>Aucune motivation malveillante. Cause : Pression des délais, oubli de nettoyer le code après un test local, méconnaissance des bonnes pratiques de gestion des secrets.</t>
+  </si>
+  <si>
+    <t>Accès légitime en écriture au dépôt de code source (GitHub).</t>
+  </si>
+  <si>
+    <t>Développement d'une fonctionnalité, ajout d'une clé en dur pour un test, et oubli de la retirer avant d'exécuter la commande git push.</t>
+  </si>
+  <si>
+    <t>Curiosité, rivalité interne entre équipes, volonté de trouver des failles dans les projets des autres pour se valoriser.</t>
+  </si>
+  <si>
+    <t>Un compte utilisateur standard et légitime sur l'application ZorZap.</t>
+  </si>
+  <si>
+    <t>Exploration de l'API, tentative de manipulation des identifiants dans les URL (/api/scans/123 → /api/scans/124), recherche de failles de contrôle d'accès.</t>
+  </si>
+  <si>
+    <t>OV-08 : Compromettre l'intégrité de l'application ZorZap en injectant du code malveillant via une dépendance.</t>
+  </si>
+  <si>
+    <t>Compromission à grande échelle de tous les utilisateurs de la dépendance, vol de données, installation de portes dérobées ou de ransomwares.</t>
+  </si>
+  <si>
+    <t>Compétences techniques avancées, capacité à compromettre le compte d'un mainteneur de paquet légitime (via phishing, etc.).</t>
+  </si>
+  <si>
+    <t>Prise de contrôle d'un paquet NuGet populaire, ajout de code malveillant discret, et publication d'une nouvelle version mineure pour que les builds automatiques l'intègrent.</t>
+  </si>
+  <si>
+    <t>SR-02 : Personne Interne (Admin, par Malveillance)</t>
+  </si>
+  <si>
+    <t>OV-06 : Saboter le processus DevSecOps en altérant délibérément le pipeline ou les résultats.</t>
+  </si>
+  <si>
+    <t>Vengeance (employé mécontent), sabotage pour masquer une autre activité malveillante, pression externe (chantage).</t>
+  </si>
+  <si>
+    <t>Accès légitime avec des privilèges élevés au serveur Jenkins.</t>
+  </si>
+  <si>
+    <t>Modification discrète du Jenkinsfile pour désactiver les étapes de sécurité critiques (SCA, SAST) ou pour altérer les rapports générés.</t>
+  </si>
+  <si>
+    <t>PARTIE PRENANTE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Mon Entreprise (Futurs utilisateurs internes)</t>
+  </si>
+  <si>
+    <t>Ils sont les bénéficiaires et les utilisateurs finaux du service ZorZap. Leurs équipes (Dev, Sec) consommeront les rapports et les dashboards.</t>
+  </si>
+  <si>
+    <t>Partenaires</t>
+  </si>
+  <si>
+    <t>Guardia Cybersecurity School</t>
+  </si>
+  <si>
+    <t>C'est un partenaire "académique". Il n'interagit pas directement avec le système mais évalue la démarche, la méthodologie et le résultat final du projet.</t>
+  </si>
+  <si>
+    <t>Prestataires</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>C'est un prestataire de service critique qui héberge le bien support "Code Source". Il fournit la plateforme sur laquelle le code est stocké et versionné.</t>
+  </si>
+  <si>
+    <t>Ce sont des prestataires "implicites". Ils fournissent des composants logiciels (dépendances) qui sont intégrés directement dans l'application.</t>
+  </si>
+  <si>
+    <t>Entité (Interne)</t>
+  </si>
+  <si>
+    <t>Moi-même (Nassim KADRI)</t>
+  </si>
+  <si>
+    <t>En tant que développeur, administrateur du système et du pipeline, je suis au cœur des interactions internes avec l'ensemble des biens supports.</t>
+  </si>
+  <si>
+    <t>EXEMPLE DE LA DOC EBIOS RM</t>
+  </si>
+  <si>
+    <t>CARTOGRAPHIE MENACE NUMERIQUES ZORZAP</t>
+  </si>
+  <si>
+    <t>Fournisseurs de paquets Open Source (NuGet, ZAP, .NET etc.)</t>
+  </si>
+  <si>
+    <t>METTRE DES VRAI SCHEMAS DE SCENARIO STRATEGIQUES</t>
+  </si>
+  <si>
+    <t>SS-01</t>
+  </si>
+  <si>
+    <t>SS-02</t>
+  </si>
+  <si>
+    <t>SS-03</t>
+  </si>
+  <si>
+    <t>SS-04</t>
+  </si>
+  <si>
+    <t>SS-05</t>
+  </si>
+  <si>
+    <t>OV-01 : Obtenir une exécution de code à distance (RCE).</t>
+  </si>
+  <si>
+    <t>OV-04 : Compromettre le pipeline CI/CD pour y injecter un spyware.</t>
+  </si>
+  <si>
+    <t>OV-06 : Exposer accidentellement un secret dans le code source.</t>
+  </si>
+  <si>
+    <t>OV-08 : Lire les rapports de vulnérabilités d'une autre équipe.</t>
+  </si>
+  <si>
+    <t>OV-11 : Publier une version malveillante d'un paquet NuGet critique.</t>
+  </si>
+  <si>
+    <t>ER-06 : Compromission totale du service API. ER-02 : Altération d'un rapport.</t>
+  </si>
+  <si>
+    <t>ER-02 : Altération d'un rapport. ER-03 : Perte de l'historique des scans.</t>
+  </si>
+  <si>
+    <t>ER-06 : Compromission totale du service API. ER-03 : Perte de l'historique des scans.</t>
+  </si>
+  <si>
+    <t>ER-08 : Violation du cloisonnement des données entre les équipes.</t>
+  </si>
+  <si>
+    <t>ER-06 : Compromission totale du service API.</t>
+  </si>
+  <si>
+    <t>Objectifs Visés (OV)</t>
+  </si>
+  <si>
+    <t>Événements Redoutés (ER)</t>
+  </si>
+  <si>
+    <t>Source de Risque (SR)</t>
+  </si>
+  <si>
+    <t>ID Scénario Stratégique</t>
+  </si>
+  <si>
+    <t>Un attaquant externe scanne internet, découvre l'API ZorZap et l'exploite via une vulnérabilité connue dans une dépendance pour exécuter du code, prendre le contrôle du conteneur et altérer les rapports de scan.</t>
+  </si>
+  <si>
+    <t>Un attaquant ciblé exploite une faille dans le serveur Jenkins pour modifier le pipeline. Il injecte un code qui va subtilement falsifier les résultats des scans avant leur enregistrement en base de données.</t>
+  </si>
+  <si>
+    <t>Lors d'un développement, un secret (ex: la chaîne de connexion à la BDD) est commitée par erreur. Un bot sur GitHub le détecte et un attaquant l'utilise pour se connecter à la base et effacer toutes les données.</t>
+  </si>
+  <si>
+    <t>Un utilisateur d'une équipe A, authentifié sur l'application, manipule les requêtes API pour accéder aux rapports de scan de l'équipe B, qui contiennent des informations sur des vulnérabilités critiques non encore corrigées.</t>
+  </si>
+  <si>
+    <t>Un attaquant prend le contrôle d'un paquet NuGet populaire utilisé par ZorZap. Il y ajoute une porte dérobée. Lors du prochain build sur Jenkins, la version malveillante est téléchargée, compromettant l'application de l'intérieur.</t>
+  </si>
+  <si>
+    <t>Description du Scénario Stratégique</t>
+  </si>
+  <si>
+    <t>Gravité</t>
+  </si>
+  <si>
+    <t>Vraisemblance ↓ \ Impact →</t>
+  </si>
+  <si>
+    <t>1 (Mineur)</t>
+  </si>
+  <si>
+    <t>2 (Significatif)</t>
+  </si>
+  <si>
+    <t>3 (Majeur)</t>
+  </si>
+  <si>
+    <t>4 (Critique)</t>
+  </si>
+  <si>
+    <t>3 (Élevée)</t>
+  </si>
+  <si>
+    <t>2 - Moyen</t>
+  </si>
+  <si>
+    <t>3 - Élevé</t>
+  </si>
+  <si>
+    <t>4 - Critique</t>
+  </si>
+  <si>
+    <t>2 (Moyenne)</t>
+  </si>
+  <si>
+    <t>1 - Faible</t>
+  </si>
+  <si>
+    <t>1 (Faible)</t>
+  </si>
+  <si>
+    <t>CHEMINS D'ATTAQUE STRATEGIQUES</t>
+  </si>
+  <si>
+    <t>VRAISSEMBLANCE GLOBALE</t>
+  </si>
+  <si>
+    <t>Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données portant directement sur le système
+d’information de la R&amp;D.</t>
+  </si>
+  <si>
+    <t>V3 Très vraisemblable</t>
+  </si>
+  <si>
+    <t>Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données sur le système d’information du laboratoire,
+qui détient une partie des travaux.</t>
+  </si>
+  <si>
+    <t>V2 Vraisemblable</t>
+  </si>
+  <si>
+    <t>V2 Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données passant par le prestataire informatique.</t>
+  </si>
+  <si>
+    <t>V4 Quasi certain</t>
+  </si>
+  <si>
+    <t>Un hacktiviste perturbe la production de vaccins en provoquant
+un arrêt de la production industrielle par compromission de
+l’équipement de maintenance du fournisseur de matériel.</t>
+  </si>
+  <si>
+    <t>Un hacktiviste perturbe la distribution de vaccins en modifiant
+leur étiquetage</t>
+  </si>
+  <si>
+    <t>V1 Peu vraisemblable</t>
+  </si>
+  <si>
+    <t>La source de risque va certainement atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est très élevée.</t>
+  </si>
+  <si>
+    <t>La source de risque va probablement atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est élevée.</t>
+  </si>
+  <si>
+    <t>La source de risque est susceptible d’atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est significative.</t>
+  </si>
+  <si>
+    <t>La source de risque a peu de chance d’atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est faible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +1072,47 @@
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,8 +1215,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F5496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F3864"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1218,65 +1525,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1292,20 +1739,20 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1315,18 +1762,15 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1340,7 +1784,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,20 +1872,162 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,6 +2162,315 @@
         <a:xfrm>
           <a:off x="1983105" y="2620191"/>
           <a:ext cx="11566344" cy="6243523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>156403</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>131460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EE5943-28DD-5861-3408-BF6453DB6D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11061312" y="1377330"/>
+          <a:ext cx="8036234" cy="7598773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48441</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>783227</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A437C92-DBB8-7B8A-C37C-5CBC2C1818D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626870" y="1671773"/>
+          <a:ext cx="7048500" cy="7656195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2757665F-243B-B734-0087-25813DB53CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1008561"/>
+          <a:ext cx="14006104" cy="6410053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65283</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE0BFEC-5D2F-13D6-593B-AC312061648B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13871089" y="1016646"/>
+          <a:ext cx="12932230" cy="6073412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>682388</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282509</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8B5DE7-D35D-2A80-0044-7E438A1D4FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="682388" y="420807"/>
+          <a:ext cx="9949673" cy="7628416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,18 +2786,583 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
       <c r="B2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCABAF3-E039-4ACC-A04D-A8BA92BBD06A}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
+      <c r="B5" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="87"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668E1F0E-60F5-47CA-87D4-946487DE2272}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B3:T8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F6" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="S6" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="T6" s="98"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S6:T8"/>
+    <mergeCell ref="F6:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBB7BB5-9232-4417-A985-C9A78EF620BD}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B4:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4584DE-DAD8-4B21-8092-EE76AA898478}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793E6910-4797-4338-98B4-4FBC1436B24F}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD319C-4B7A-45DD-B745-A10EFF56540E}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="93" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0C018-FE45-4169-89BA-D8A432F06C0F}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1937,199 +3397,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="93"/>
     </row>
     <row r="4" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O12" s="4"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O13" s="4"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O14" s="4"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O15" s="4"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O16" s="4"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O17" s="4"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O18" s="4"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O19" s="4"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O20" s="4"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O21" s="4"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O22" s="4"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O23" s="4"/>
+      <c r="O23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2148,9 +3605,9 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2161,63 +3618,59 @@
     <col min="3" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-    </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="21">
         <v>45848</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="134.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="168" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2233,8 +3686,8 @@
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,103 +3699,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B1" s="32"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:4" ht="134.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="2:4" ht="134.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="2:4" ht="151.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2356,8 +3809,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,238 +3824,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="47"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="40"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="49" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="47"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="40"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="38" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2612,6 +4065,205 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1AD75E-1E6B-428A-8F25-133C792F7C0F}">
+  <sheetPr>
+    <tabColor rgb="FFFF33CC"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321CDA42-E4A7-4E02-BC3C-32DA8B53DB1A}">
   <sheetPr>
     <tabColor rgb="FFFF33CC"/>
@@ -2635,116 +4287,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="52">
         <v>3</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="47" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="51">
         <v>4</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="51">
         <v>4</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="53">
         <v>2</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="53">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2752,271 +4404,72 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1AD75E-1E6B-428A-8F25-133C792F7C0F}">
-  <sheetPr>
-    <tabColor rgb="FFFF33CC"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>158</v>
-      </c>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3031,7 +4484,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3042,68 +4495,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="83" t="s">
+    <row r="2" spans="1:2" ht="131.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>187</v>
+      <c r="B5" s="78" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>179</v>
-      </c>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>184</v>
-      </c>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>182</v>
-      </c>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,17 +4558,17 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="2"/>
     <col min="8" max="8" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -3135,143 +4576,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="71" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:6" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="D2" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="E2" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="F2" s="81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="B3" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="C3" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="81" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="83" t="s">
+    <row r="4" spans="1:6" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="D4" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="E4" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="82" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="83" t="s">
+    <row r="6" spans="1:6" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="B6" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="C6" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="D6" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="E6" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="82" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="71" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="82" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="81" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83" t="s">
         <v>172</v>
       </c>
     </row>

--- a/docs/ZorZap-Risk-Analysis.xlsx
+++ b/docs/ZorZap-Risk-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nassim\Desktop\Dev\C#\ZorZap\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57728AF3-4354-455F-8980-E2FCAFBAACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABA04F-24DE-4561-A4A9-068AF1DFC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="856" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide risk management" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,10 @@
     <sheet name="Scénario opérationnels" sheetId="15" r:id="rId14"/>
     <sheet name="Vraisemblance op" sheetId="16" r:id="rId15"/>
     <sheet name="Echelle vraisemblance op" sheetId="17" r:id="rId16"/>
+    <sheet name="Synthèse scénarios de risque" sheetId="18" r:id="rId17"/>
+    <sheet name="Stratégie traitement + mesure" sheetId="19" r:id="rId18"/>
+    <sheet name="Mesures de sécurité" sheetId="20" r:id="rId19"/>
+    <sheet name="Risque résiduel" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="394">
   <si>
     <t>ATELIERS</t>
   </si>
@@ -928,42 +932,13 @@
     <t>1 (Faible)</t>
   </si>
   <si>
-    <t>CHEMINS D'ATTAQUE STRATEGIQUES</t>
-  </si>
-  <si>
-    <t>VRAISSEMBLANCE GLOBALE</t>
-  </si>
-  <si>
-    <t>Un concurrent vole des travaux de recherche en créant un canal
-d’exfiltration de données portant directement sur le système
-d’information de la R&amp;D.</t>
-  </si>
-  <si>
     <t>V3 Très vraisemblable</t>
   </si>
   <si>
-    <t>Un concurrent vole des travaux de recherche en créant un canal
-d’exfiltration de données sur le système d’information du laboratoire,
-qui détient une partie des travaux.</t>
-  </si>
-  <si>
     <t>V2 Vraisemblable</t>
   </si>
   <si>
-    <t>V2 Un concurrent vole des travaux de recherche en créant un canal
-d’exfiltration de données passant par le prestataire informatique.</t>
-  </si>
-  <si>
     <t>V4 Quasi certain</t>
-  </si>
-  <si>
-    <t>Un hacktiviste perturbe la production de vaccins en provoquant
-un arrêt de la production industrielle par compromission de
-l’équipement de maintenance du fournisseur de matériel.</t>
-  </si>
-  <si>
-    <t>Un hacktiviste perturbe la distribution de vaccins en modifiant
-leur étiquetage</t>
   </si>
   <si>
     <t>V1 Peu vraisemblable</t>
@@ -987,13 +962,395 @@
     <t>La source de risque a peu de chance d’atteindre son objectif visé
 selon l’un des modes opératoires envisagés.
 La vraisemblance du scénario est faible.</t>
+  </si>
+  <si>
+    <t>Kill Chain : Connaître (Reconnaissance)</t>
+  </si>
+  <si>
+    <t>Kill Chain : Rentrer (Intrusion)</t>
+  </si>
+  <si>
+    <t>Kill Chain : Trouver (Découverte)</t>
+  </si>
+  <si>
+    <t>Kill Chain : Exploiter (Action sur l'objectif)</t>
+  </si>
+  <si>
+    <t>Scénario Stratégique Associé</t>
+  </si>
+  <si>
+    <t>L'attaquant exploite une vulnérabilité critique (ex: Log4Shell) connue dans une dépendance non patchée de l'API pour obtenir une exécution de code à distance (RCE). (STRIDE: Élévation de privilèges)</t>
+  </si>
+  <si>
+    <t>Depuis son accès initial dans le conteneur, l'attaquant énumère les processus et le système de fichiers pour localiser le service de génération de rapports et ses données sources. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>L'attaquant modifie le script ou la donnée source utilisée par le service pour altérer le contenu des rapports de scan générés par l'API ZorZap. (STRIDE: Altération de données)</t>
+  </si>
+  <si>
+    <t>L'attaquant exploite une faille de sécurité sur le serveur Jenkins (ex: RCE sur un plugin) pour obtenir un accès non autorisé à l'outil de CI/CD. (STRIDE: Usurpation d'identité)</t>
+  </si>
+  <si>
+    <t>L'attaquant navigue dans Jenkins pour trouver le "pipeline script" (Jenkinsfile) du projet ZorZap, qui définit les étapes de build et de déploiement. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>Le bot détecte une chaîne de connexion à la base de données ZorZap, commitée par erreur par un développeur. C'est le point d'entrée direct. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>L'attaquant utilise un client BDD (ex: DBeaver) avec le secret volé pour se connecter directement à la base et lister les tables afin d'identifier celles contenant l'historique des scans. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>L'attaquant exécute une commande DELETE ou DROP sur les tables identifiées pour effacer l'historique des scans, provoquant une perte de données irréversible. (STRIDE: Déni de Service)</t>
+  </si>
+  <si>
+    <t>L'utilisateur est déjà authentifié. L' "intrusion" consiste à forger manuellement une requête API légitime mais non autorisée. (STRIDE: Usurpation d'identité)</t>
+  </si>
+  <si>
+    <t>L'utilisateur modifie l'URL en remplaçant son ID (?id=123) par un ID qu'il devine appartenir à l'équipe B (?id=456). (STRIDE: Élévation de privilèges)</t>
+  </si>
+  <si>
+    <t>Le serveur ne vérifie que l'authentification et non les droits de propriété sur la ressource. Il renvoie donc le rapport de l'équipe B, violant le cloisonnement des données. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>L'attaquant publie la version malveillante du paquet sur le dépôt NuGet. Lors du prochain build, le système d'intégration continue de ZorZap télécharge le paquet piégé. (STRIDE: Altération de données)</t>
+  </si>
+  <si>
+    <t>Une fois l'application déployée avec le code malveillant, celui-ci s'active et ouvre une "porte dérobée" (reverse shell) vers un serveur contrôlé par l'attaquant. (STRIDE: Élévation de privilèges)</t>
+  </si>
+  <si>
+    <t>Via la porte dérobée, l'attaquant a un contrôle total sur le conteneur de l'application, lui permettant de voler des données, d'altérer le service ou de pivoter dans l'infrastructure. (STRIDE: Compromission totale)</t>
+  </si>
+  <si>
+    <t>Scénario Opérationnel 1 : Exploitation d'une dépendance vulnérable
+L'attaquant utilise des scanners de vulnérabilités publics (ex: Shodan) et des outils comme Nuclei pour identifier les API ZorZap exposées sur internet et les technologies sous-jacentes. (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>Scénario Opérationnel 2 : Compromission du pipeline CI/CD
+L'attaquant identifie que ZorZap utilise Jenkins via des indices publics (offres d'emploi, profils de développeurs) et scanne l'instance pour des failles (plugins obsolètes, mots de passe faibles). (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t>Scénario Opérationnel 3 : Vol de secret sur un dépôt public
+L'attaquant utilise des bots automatisés qui scannent en continu les commits sur les dépôts de code publics (GitHub) à la recherche de chaînes de caractères sensibles (clés d'API, mots de passe). (STRIDE: Divulgation d'informations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scénario Opérationnel 4 : Contournement de cloisonnement (IDOR) 
+Un utilisateur de l'équipe A, en utilisant l'application, observe que l'URL pour voir un rapport est prédictible (ex: /api/reports?id=123). (STRIDE: Divulgation d'informations)
+</t>
+  </si>
+  <si>
+    <t>Scénario Opérationnel 5 : Attaque via la Supply Chain logicielle
+L'attaquant identifie une dépendance NuGet peu maintenue mais critique pour ZorZap et prépare une version malveillante (ex: avec un "typosquatting" ou en piratant le compte du mainteneur). (STRIDE: Altération de données)</t>
+  </si>
+  <si>
+    <t>L'attaquant injecte un script dans le pipeline qui intercepte les résultats des scans de vulnérabilité et les modifie avant leur enregistrement en BDD. (STRIDE: Altération de données)</t>
+  </si>
+  <si>
+    <t>ID Scénario Opérationnel</t>
+  </si>
+  <si>
+    <t>Description du Chemin d'Attaque</t>
+  </si>
+  <si>
+    <t>Analyse de la Vraisemblance</t>
+  </si>
+  <si>
+    <t>Vraisemblance</t>
+  </si>
+  <si>
+    <t>SO-01</t>
+  </si>
+  <si>
+    <t>Ce scénario est très courant. Les scanners automatisés recherchent constamment des vulnérabilités connues et faciles à exploiter. Si une dépendance critique n'est pas mise à jour, l'exploitation est souvent simple et rapide avec des outils publics.</t>
+  </si>
+  <si>
+    <t>V3 - Très vraisemblable</t>
+  </si>
+  <si>
+    <t>SO-02</t>
+  </si>
+  <si>
+    <t>Ce type d'attaque est plus complexe. Il nécessite une phase de reconnaissance ciblée et l'exploitation d'une faille spécifique à un outil (Jenkins). Bien que très impactant, il demande plus d'efforts qu'un simple scan de vulnérabilités web. La protection de l'outil CI/CD est donc un facteur clé.</t>
+  </si>
+  <si>
+    <t>V2 - Vraisemblable</t>
+  </si>
+  <si>
+    <t>SO-03</t>
+  </si>
+  <si>
+    <t>C'est un scénario malheureusement fréquent et quasi-certain de se produire si un secret est exposé. Des bots scannent GitHub en permanence pour cette raison précise. L'erreur humaine est le seul prérequis, et la détection/exploitation est immédiate.</t>
+  </si>
+  <si>
+    <t>V4 - Quasi certain</t>
+  </si>
+  <si>
+    <t>SO-04</t>
+  </si>
+  <si>
+    <t>C'est l'une des vulnérabilités de contrôle d'accès les plus communes dans les applications web. Elle est facile à découvrir pour un utilisateur "curieux" et ne requiert aucun outil spécifique. Si le contrôle n'est pas implémenté côté serveur, l'exploitation est triviale.</t>
+  </si>
+  <si>
+    <t>SO-05</t>
+  </si>
+  <si>
+    <t>Cette attaque est de plus en plus populaire et très difficile à détecter. Elle ne repose pas sur une faille dans le code de ZorZap, mais sur la confiance accordée à l'écosystème open-source. La probabilité dépend de la popularité et de la sécurité des paquets tiers utilisés.</t>
+  </si>
+  <si>
+    <t>Exploitation d'une dépendance vulnérable (RCE) 
+L'attaquant trouve l'API, identifie une dépendance connue non patchée (ex: Log4j) et l'exploite pour exécuter du code et altérer des rapports.</t>
+  </si>
+  <si>
+    <t>Compromission du pipeline CI/CD 
+L'attaquant trouve l'instance Jenkins, exploite une mauvaise configuration ou une faille pour y accéder, et modifie le pipeline pour falsifier les résultats des scans.</t>
+  </si>
+  <si>
+    <t>Vol de secret sur un dépôt de code public
+Un développeur commet un secret (clé BDD) sur GitHub. Un bot le trouve quasi-instantanément et l'attaquant l'utilise pour accéder à la BDD et effacer des données.</t>
+  </si>
+  <si>
+    <t>Contournement de cloisonnement des données (IDOR)
+Un utilisateur légitime authentifié manipule un identifiant dans une URL (/api/reports?id=...) et accède aux données d'une autre équipe car le serveur ne vérifie pas les droits.</t>
+  </si>
+  <si>
+    <t>Attaque via la Supply Chain logicielle
+Un attaquant compromet un paquet NuGet utilisé par ZorZap. La version malveillante est téléchargée dans le build, créant une porte dérobée dans l'application.</t>
+  </si>
+  <si>
+    <t>SCENARIOS DE RISQUES ASSOCIES</t>
+  </si>
+  <si>
+    <t>MESURE DE SECURITE</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>FREINS ET DIFFICULTES DE MISE EN ŒUVRE</t>
+  </si>
+  <si>
+    <t>COUT / COMPLEXITE</t>
+  </si>
+  <si>
+    <t>ECHEANCE</t>
+  </si>
+  <si>
+    <t>STATUT</t>
+  </si>
+  <si>
+    <t>RR01 - LIBELLE DU RISQUE RESIDUEL : [..]</t>
+  </si>
+  <si>
+    <t>Description et analyse du risque résiduel :</t>
+  </si>
+  <si>
+    <t>Evenements redoutés concernés :</t>
+  </si>
+  <si>
+    <t>Mesures de traitement du risque existantes et complémentaires :</t>
+  </si>
+  <si>
+    <t>Evaluation du risque résiduel :</t>
+  </si>
+  <si>
+    <t>Gravité initiale :</t>
+  </si>
+  <si>
+    <t>Vraisemblance initiale :</t>
+  </si>
+  <si>
+    <t>Niveau de risque initial :</t>
+  </si>
+  <si>
+    <t>Gravité résiduelle :</t>
+  </si>
+  <si>
+    <t>Vraisemblance résiduelle :</t>
+  </si>
+  <si>
+    <t>Niveau de risque résiduel :</t>
+  </si>
+  <si>
+    <t>Gestion du risque résiduel :</t>
+  </si>
+  <si>
+    <t>ID Scénario de Risque</t>
+  </si>
+  <si>
+    <t>Description du Scénario de Risque</t>
+  </si>
+  <si>
+    <t>Niveau de Risque</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Un attaquant externe exploite une vulnérabilité dans une dépendance pour exécuter du code sur l'API et altérer des rapports.</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Un attaquant ciblé compromet le serveur CI/CD (Jenkins) pour injecter du code malveillant dans le pipeline et falsifier les résultats des scans.</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Un développeur expose un secret critique (ex: clé de BDD) sur un dépôt public (GitHub), menant à une compromission directe de la base de données.</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Un utilisateur légitime mais curieux contourne le cloisonnement des données en manipulant des ID dans l'API, accédant ainsi aux rapports d'autres équipes.</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Une attaque sur la "supply chain" via un paquet NuGet compromis permet à un attaquant d'intégrer une porte dérobée dans l'application ZorZap.</t>
+  </si>
+  <si>
+    <t>V1 - Peu vraisemblable</t>
+  </si>
+  <si>
+    <t>Stratégie de Traitement</t>
+  </si>
+  <si>
+    <t>Mesures de Sécurité Proposées</t>
+  </si>
+  <si>
+    <t>Réduction</t>
+  </si>
+  <si>
+    <t>M-01 : Mettre en place un outil de scan automatisé des dépendances (SCA - Software Composition Analysis) dans le pipeline CI/CD.
+M-02 : Établir une politique de mise à jour des dépendances critiques en moins de 72h.
+M-03 : Utiliser un pare-feu applicatif (WAF) pour bloquer les tentatives d'exploitation connues.</t>
+  </si>
+  <si>
+    <t>M-04 : Durcir la configuration du serveur Jenkins (accès restreint par IP, authentification forte MFA).
+M-05 : Appliquer le principe de moindre privilège pour les droits des jobs dans le pipeline.
+M-06 : Activer et surveiller les journaux d'audit de Jenkins.</t>
+  </si>
+  <si>
+    <t>M-07 : Mettre en place des "pre-commit hooks" pour empêcher les développeurs de commiter des secrets.
+M-08 : Intégrer un outil de scan de secrets automatisé sur les dépôts de code.
+M-09 : Centraliser la gestion de tous les secrets dans un coffre-fort numérique (ex: HashiCorp Vault, AWS Secrets Manager).</t>
+  </si>
+  <si>
+    <t>M-10 : Implémenter une vérification systématique côté serveur pour chaque requête API, afin de s'assurer que l'utilisateur authentifié a bien le droit d'accéder à la ressource demandée.
+M-11 : Intégrer la recherche de vulnérabilités IDOR dans les revues de code et les tests de sécurité.</t>
+  </si>
+  <si>
+    <t>M-12 : Mettre en place un proxy de dépendances (ex: Nexus, Artifactory) pour valider et mettre en cache les paquets externes.
+M-13 : Imposer le "version pinning" (figer les versions des dépendances) et vérifier les sommes de contrôle (checksums) des paquets.</t>
+  </si>
+  <si>
+    <t>M-01</t>
+  </si>
+  <si>
+    <t>M-02</t>
+  </si>
+  <si>
+    <t>M-03</t>
+  </si>
+  <si>
+    <t>M-04</t>
+  </si>
+  <si>
+    <t>M-05</t>
+  </si>
+  <si>
+    <t>M-06</t>
+  </si>
+  <si>
+    <t>M-07</t>
+  </si>
+  <si>
+    <t>M-08</t>
+  </si>
+  <si>
+    <t>M-09</t>
+  </si>
+  <si>
+    <t>M-10</t>
+  </si>
+  <si>
+    <t>M-11</t>
+  </si>
+  <si>
+    <t>M-12</t>
+  </si>
+  <si>
+    <t>M-13</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Organisationnelle</t>
+  </si>
+  <si>
+    <t>Procédurale</t>
+  </si>
+  <si>
+    <t>Nassim KADRI</t>
+  </si>
+  <si>
+    <t>Sélection et paramétrage de l'outil ; gestion du cycle de vie des vulnérabilités ; impact sur la durée des builds.</t>
+  </si>
+  <si>
+    <t>Adoption de la politique par les équipes ; arbitrage entre vélocité et sécurité.</t>
+  </si>
+  <si>
+    <t>Coût (licence, infra) ; complexité de la configuration pour éviter le blocage de trafic légitime ; maintenance des règles.</t>
+  </si>
+  <si>
+    <t>Complexification potentielle des workflows ; audit de configuration initial exhaustif.</t>
+  </si>
+  <si>
+    <t>Analyse détaillée des permissions requises ; maintenance des rôles lors de l'évolution des projets.</t>
+  </si>
+  <si>
+    <t>Nécessite une infrastructure de journalisation ; définition de scénarios de détection pertinents pour éviter le bruit.</t>
+  </si>
+  <si>
+    <t>Hétérogénéité des environnements ; discipline des équipes pour l'installation ; possibilité de contournement.</t>
+  </si>
+  <si>
+    <t>Impact sur la performance du pipeline ; calibrage des outils pour maîtriser les faux positifs.</t>
+  </si>
+  <si>
+    <t>Chantier technique structurant ; complexité de l'intégration applicative (refactoring) ; gestion de la disponibilité du Vault.</t>
+  </si>
+  <si>
+    <t>Audit exhaustif des points d'accès de l'API ; effort de développement conséquent pour les applications existantes.</t>
+  </si>
+  <si>
+    <t>Nécessite une expertise en sécurité pour la conception de cas de tests pertinents et non-triviaux.</t>
+  </si>
+  <si>
+    <t>Coût d'infrastructure et de licence ; intégration dans les processus de build ; gestion du cycle de vie des paquets.</t>
+  </si>
+  <si>
+    <t>Nécessite une discipline rigoureuse ; peut freiner l'adoption des mises à jour si le processus n'est pas agile.</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,8 +1468,26 @@
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,24 +1622,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EAADB"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F3864"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1635,6 +2028,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1644,6 +2048,19 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
       </bottom>
@@ -1651,7 +2068,22 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
@@ -1669,7 +2101,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="0"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1679,11 +2111,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1927,6 +2472,180 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1957,77 +2676,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,15 +3135,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>682388</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56867</xdr:rowOff>
+      <xdr:colOff>1160061</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>282509</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42536</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2686051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2469,8 +3173,140 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="682388" y="420807"/>
+          <a:off x="1160061" y="4924569"/>
           <a:ext cx="9949673" cy="7628416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>763905</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5076554</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6FC9E3-4944-9163-832C-4717C9253F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="763905" y="3133998"/>
+          <a:ext cx="6189074" cy="7155180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723356</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>208734</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED17A785-547D-BF4A-156F-C6B0CAEE2B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17881963" y="351609"/>
+          <a:ext cx="6803844" cy="7328807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,7 +3684,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="153" t="s">
         <v>216</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -2859,7 +3695,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="69" t="s">
         <v>225</v>
       </c>
@@ -2921,29 +3757,29 @@
       <c r="B3"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="S6" s="97" t="s">
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="S6" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="98"/>
+      <c r="T6" s="156"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3035,171 +3871,171 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="92" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="92" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="93" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="93" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="92" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="91" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="93" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="92" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="97" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3214,19 +4050,154 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="122.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="115.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="112" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1"/>
+    <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="121" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="101"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3237,65 +4208,103 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="54.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="93" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="110" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+    <row r="4" spans="1:4" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="112" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="116" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3311,54 +4320,669 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="109" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="118" t="s">
+    <row r="2" spans="1:2" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="113" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="119" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>279</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473300B2-3C7F-4E39-8E91-E1BECEF8D7B2}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="126" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE6CE7B-F255-40E0-B0ED-BC4F2840B344}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="169.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="141"/>
+    </row>
+    <row r="2" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="136" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="142"/>
+    </row>
+    <row r="3" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="136" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="142"/>
+    </row>
+    <row r="4" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="142"/>
+    </row>
+    <row r="5" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="136" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="142"/>
+    </row>
+    <row r="6" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="142"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E3E25-BFC2-430D-9A35-59527B994C7D}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="148" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="164" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="177" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="170" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="169" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="172" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="170" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="169" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="165" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="172"/>
+      <c r="H4" s="171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="170" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="169" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="165" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="172"/>
+      <c r="H5" s="171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="166" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="175" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="176"/>
+      <c r="H6" s="171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="164" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="164" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="164" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="171" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="169" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="172"/>
+      <c r="H8" s="171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="169" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="172"/>
+      <c r="H9" s="171" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="168" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="174" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="175" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="175" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="175"/>
+      <c r="H10" s="169" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="164" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="164" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="169" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="171" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="165" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" s="169" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="173" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="173" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="169" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="169" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3397,16 +5021,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="152" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3424,10 +5048,10 @@
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="93"/>
+      <c r="G2" s="151"/>
     </row>
     <row r="3" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="152"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3443,10 +5067,10 @@
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="93"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -3462,10 +5086,10 @@
       <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="93"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3481,10 +5105,10 @@
       <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3496,10 +5120,10 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="93"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3509,10 +5133,10 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="93"/>
+      <c r="G7" s="151"/>
     </row>
     <row r="8" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -3520,10 +5144,10 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="93"/>
+      <c r="G8" s="151"/>
     </row>
     <row r="9" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3531,10 +5155,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="93"/>
+      <c r="G9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
@@ -3542,15 +5166,15 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="93"/>
+      <c r="G10" s="151"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="3"/>
@@ -3597,6 +5221,102 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCB65F-C954-4EA4-BB13-086805C14928}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="163"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="161" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+    </row>
+    <row r="6" spans="1:3" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="124" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="161" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/docs/ZorZap-Risk-Analysis.xlsx
+++ b/docs/ZorZap-Risk-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nassim\Desktop\Dev\C#\ZorZap\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABA04F-24DE-4561-A4A9-068AF1DFC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535C58B6-DD46-406C-B1D3-F9CF97518D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide risk management" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="Synthèse scénarios de risque" sheetId="18" r:id="rId17"/>
     <sheet name="Stratégie traitement + mesure" sheetId="19" r:id="rId18"/>
     <sheet name="Mesures de sécurité" sheetId="20" r:id="rId19"/>
-    <sheet name="Risque résiduel" sheetId="21" r:id="rId20"/>
+    <sheet name="Mesures sec à priorisé" sheetId="22" r:id="rId20"/>
+    <sheet name="Risque résiduel" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="447">
   <si>
     <t>ATELIERS</t>
   </si>
@@ -1137,40 +1138,7 @@
     <t>STATUT</t>
   </si>
   <si>
-    <t>RR01 - LIBELLE DU RISQUE RESIDUEL : [..]</t>
-  </si>
-  <si>
-    <t>Description et analyse du risque résiduel :</t>
-  </si>
-  <si>
-    <t>Evenements redoutés concernés :</t>
-  </si>
-  <si>
-    <t>Mesures de traitement du risque existantes et complémentaires :</t>
-  </si>
-  <si>
     <t>Evaluation du risque résiduel :</t>
-  </si>
-  <si>
-    <t>Gravité initiale :</t>
-  </si>
-  <si>
-    <t>Vraisemblance initiale :</t>
-  </si>
-  <si>
-    <t>Niveau de risque initial :</t>
-  </si>
-  <si>
-    <t>Gravité résiduelle :</t>
-  </si>
-  <si>
-    <t>Vraisemblance résiduelle :</t>
-  </si>
-  <si>
-    <t>Niveau de risque résiduel :</t>
-  </si>
-  <si>
-    <t>Gestion du risque résiduel :</t>
   </si>
   <si>
     <t>ID Scénario de Risque</t>
@@ -1344,13 +1312,665 @@
   </si>
   <si>
     <t>En cours</t>
+  </si>
+  <si>
+    <t>ID Mesure</t>
+  </si>
+  <si>
+    <t>Description de la mesure</t>
+  </si>
+  <si>
+    <t>Risques Associés</t>
+  </si>
+  <si>
+    <t>Échéance Cible</t>
+  </si>
+  <si>
+    <t>Statut Prioritaire pour la Soutenance</t>
+  </si>
+  <si>
+    <t>Prévention du "Leak" de Secrets (en local)</t>
+  </si>
+  <si>
+    <t>Semaine du 21/07</t>
+  </si>
+  <si>
+    <t>À IMPLÉMENTER</t>
+  </si>
+  <si>
+    <t>Garantie de Reproductibilité (Pinning)</t>
+  </si>
+  <si>
+    <t>Politique de Remédiation des Vulnérabilités</t>
+  </si>
+  <si>
+    <t>À IMPLÉMENTER (documenter)</t>
+  </si>
+  <si>
+    <t>Détection de Secrets (dans le pipeline)</t>
+  </si>
+  <si>
+    <t>Semaine du 28/07</t>
+  </si>
+  <si>
+    <t>Sécurisation du Contrôle d'Accès (IDOR)</t>
+  </si>
+  <si>
+    <t>Semaines du 28/07 et 04/08</t>
+  </si>
+  <si>
+    <t>À IMPLÉMENTER (Core Feature)</t>
+  </si>
+  <si>
+    <t>Analyse de la Composition Logicielle (SCA)</t>
+  </si>
+  <si>
+    <t>Semaine du 04/08</t>
+  </si>
+  <si>
+    <t>Tests de Sécurité du Contrôle d'Accès</t>
+  </si>
+  <si>
+    <t>Durcissement de l'Orchestrateur CI/CD</t>
+  </si>
+  <si>
+    <t>Semaine du 11/08</t>
+  </si>
+  <si>
+    <t>Application du Moindre Privilège (CI/CD)</t>
+  </si>
+  <si>
+    <t>Gestion Centralisée des Secrets (Vault)</t>
+  </si>
+  <si>
+    <t>Gestion des Dépendances (Proxy)</t>
+  </si>
+  <si>
+    <t>Protection Périmétrique (WAF)</t>
+  </si>
+  <si>
+    <t>Supervision de la Sécurité (SIEM)</t>
+  </si>
+  <si>
+    <t>Semaine du 01/09</t>
+  </si>
+  <si>
+    <t>Semaine du 01/10</t>
+  </si>
+  <si>
+    <t>Semaine du 01/11</t>
+  </si>
+  <si>
+    <t>Semaine du 01/12</t>
+  </si>
+  <si>
+    <t>RR01 - LIBELLE DU RISQUE RESIDUEL : Exploitation d'une dépendance vulnérable par un attaquant externe.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evenements redoutés concernés :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ER-06 : Compromission totale du service API.
+ER-02 : Altération d'un rapport.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description et analyse du risque résiduel :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Le risque initial était élevé (3) car un attaquant opportuniste pouvait facilement exploiter une dépendance non mise à jour. Grâce aux mesures de scan automatique (SCA) et à la politique de remédiation, la fenêtre d'exposition à une vulnérabilité connue est drastiquement réduite. Le risque qui subsiste est celui lié à une vulnérabilité "zero-day" ou à un échec dans le processus de mise à jour.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mesures de traitement du risque existantes et complémentaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+M-01 : Analyse de la Composition Logicielle (SCA).
+M-02 : Politique de Remédiation des Vulnérabilités.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gravité initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gravité résiduelle : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vraisemblance initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> V3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vraisemblance résiduelle : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Niveau de risque résiduel : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Moyen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Niveau de risque initial : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Elevé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gestion du risque résiduel : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Le risque est accepté.</t>
+    </r>
+  </si>
+  <si>
+    <t>RR02 - LIBELLE DU RISQUE RESIDUEL : Compromission du pipeline CI/CD par un attaquant ciblé.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description et analyse du risque résiduel :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Le risque initial était élevé (3). L'implémentation de mesures de durcissement sur Jenkins et l'application du principe de moindre privilège complexifient significativement la tâche d'un attaquant. Pour réussir, celui-ci devrait désormais exploiter une faille plus complexe et serait plus limité dans ses actions post-intrusion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evenements redoutés concernés :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ER-02 : Altération d'un rapport.
+ER-03 : Perte de l'historique des scans.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mesures de traitement du risque existantes et complémentaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+M-04 : Durcissement de l'Orchestrateur CI/CD.
+M-05 : Application du Moindre Privilège (CI/CD).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vraisemblance initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> V2</t>
+    </r>
+  </si>
+  <si>
+    <t>RR03 - LIBELLE DU RISQUE RESIDUEL : Fuite de secrets sur un dépôt de code public.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description et analyse du risque résiduel :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Le risque initial était critique (4) en raison de la quasi-certitude d'exploitation en cas d'erreur humaine. La mise en place d'une double barrière (prévention en local avec les pre-commit hooks, détection dans le pipeline) rend la probabilité qu'un secret atteigne et persiste sur le dépôt main très faible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evenements redoutés concernés :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ER-06 : Compromission totale du service API.
+ER-03 : Perte de l'historique des scans.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mesures de traitement du risque existantes et complémentaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+M-07 : Prévention du "Leak" de Secrets (en local).
+M-08 : Détection de Secrets (dans le pipeline).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gravité initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gravité résiduelle : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vraisemblance initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> V4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Niveau de risque initial :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Critique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description et analyse du risque résiduel :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Le risque initial était critique (4) car la vulnérabilité était simple à découvrir et à exploiter. En implémentant le contrôle d'accès systématique côté serveur, la cause racine de la vulnérabilité est éliminée. Les tests de non-régression assurent la pérennité de la correction. Le risque résiduel est lié à l'introduction d'une nouvelle faille similaire non couverte par les tests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evenements redoutés concernés :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ER-08 : Violation du cloisonnement des données entre les équipes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mesures de traitement du risque existantes et complémentaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+M-10 : Sécurisation du Contrôle d'Accès (IDOR).
+M-11 : Tests de Sécurité du Contrôle d'Accès.</t>
+    </r>
+  </si>
+  <si>
+    <t>RR04 - LIBELLE DU RISQUE RESIDUEL : Violation du cloisonnement des données par un utilisateur légitime.</t>
+  </si>
+  <si>
+    <t>RR05 - LIBELLE DU RISQUE RESIDUEL : Compromission via une dépendance malveillante (Supply Chain).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Description et analyse du risque résiduel :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Le risque initial était moyen (2). La mesure de "version pinning" est une défense efficace contre les attaques les plus courantes de la supply chain (ex: typosquatting, publication d'une version mineure malveillante). Elle n'élimine pas le risque qu'un paquet légitime, dans sa version figée, soit lui-même compromis, mais elle réduit la surface d'attaque.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evenements redoutés concernés :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ER-06 : Compromission totale du service API.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mesures de traitement du risque existantes et complémentaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+M-13 : Garantie de Reproductibilité (Pinning).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vraisemblance initiale :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Niveau de risque initial :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Moyen</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +2105,26 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="29">
@@ -1657,7 +2297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2224,11 +2864,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2565,172 +3307,218 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3596,7 +4384,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +4472,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="150" t="s">
         <v>216</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -3695,7 +4483,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="154"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="69" t="s">
         <v>225</v>
       </c>
@@ -3757,29 +4545,29 @@
       <c r="B3"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="S6" s="155" t="s">
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="S6" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="156"/>
+      <c r="T6" s="153"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4350,7 +5138,7 @@
       <c r="A3" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="122" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4397,104 +5185,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="124" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="125" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="125" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B6" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="127" t="s">
+      <c r="C6" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="128" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="126" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="129" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="128" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="128" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="130" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="128" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="130" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="128" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="126" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="132" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4527,93 +5315,93 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="135" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="138"/>
+    </row>
+    <row r="2" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="139"/>
+    </row>
+    <row r="3" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="139"/>
+    </row>
+    <row r="4" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="133" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="139"/>
+    </row>
+    <row r="6" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="134" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="104" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" s="138" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="141"/>
-    </row>
-    <row r="2" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="136" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="139" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="142"/>
-    </row>
-    <row r="3" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136" t="s">
+      <c r="B6" s="142" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="134" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="143" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="142"/>
-    </row>
-    <row r="4" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="136" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="142"/>
-    </row>
-    <row r="5" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="136" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="142"/>
-    </row>
-    <row r="6" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="145" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="142"/>
+      <c r="D6" s="137" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="139"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20"/>
@@ -4631,7 +5419,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4648,340 +5436,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="143" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="144" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="145" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="164" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="164" t="s">
+      <c r="A2" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="172" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="164" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="166" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="167" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="164" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="167"/>
+      <c r="H4" s="166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="165" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="164" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="167"/>
+      <c r="H5" s="166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="161" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="171" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="171"/>
+      <c r="H6" s="166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="159" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="166" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="167"/>
+      <c r="H8" s="166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="166" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="167"/>
+      <c r="H9" s="166" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="163" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="169" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="170" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10" s="170"/>
+      <c r="H10" s="164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="159" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="172" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="166" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="166" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="177" t="s">
+      <c r="C13" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="164" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F13" s="160" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="168" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="168" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="164" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="164" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="170" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" s="171" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="171" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="169" t="s">
-        <v>379</v>
-      </c>
-      <c r="F3" s="172" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="170" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="171" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="172" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="165" t="s">
-        <v>391</v>
-      </c>
-      <c r="G4" s="172"/>
-      <c r="H4" s="171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="170" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="171" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="172" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E5" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="165" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="172"/>
-      <c r="H5" s="171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="166" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="167" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="176" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="175" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="164" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="164" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="164" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="F7" s="164" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="170" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="171" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="171" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" s="169" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="170" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="171" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="172" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="169" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="172"/>
-      <c r="H9" s="171" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="168" t="s">
-        <v>346</v>
-      </c>
-      <c r="B10" s="175" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="174" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="175" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="175" t="s">
-        <v>392</v>
-      </c>
-      <c r="G10" s="175"/>
-      <c r="H10" s="169" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="164" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="164" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="177" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="164" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="171" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="169" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="171" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="165" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="165" t="s">
-        <v>391</v>
-      </c>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="173" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="173" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="169" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="164" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="169" t="s">
-        <v>390</v>
-      </c>
-      <c r="F14" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169" t="s">
+      <c r="G14" s="164"/>
+      <c r="H14" s="164" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5021,16 +5809,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="149" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5048,10 +5836,10 @@
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="151"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="152"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -5067,10 +5855,10 @@
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -5086,10 +5874,10 @@
       <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="151"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -5105,10 +5893,10 @@
       <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="148"/>
     </row>
     <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -5120,10 +5908,10 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="151"/>
+      <c r="G6" s="148"/>
     </row>
     <row r="7" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5133,10 +5921,10 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="151"/>
+      <c r="G7" s="148"/>
     </row>
     <row r="8" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -5144,10 +5932,10 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="151"/>
+      <c r="G8" s="148"/>
     </row>
     <row r="9" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
@@ -5155,10 +5943,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="151"/>
+      <c r="G9" s="148"/>
     </row>
     <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
@@ -5166,15 +5954,15 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="3"/>
@@ -5225,14 +6013,291 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4FB043-F552-4AE8-9BB3-74DAC6B5D0B3}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="124" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="176"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="177" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="177" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="177" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="173"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="173"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="177" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="177" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="177" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="173"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="177" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="177" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="177" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="173"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="177" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="177" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="177" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="177" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="173"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="177" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="177" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="177" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="174"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="178" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="177" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="177" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="177" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="173"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="177" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="173"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="177" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="177" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="173"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="177" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="177" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="173"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="177" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="177" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="177" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" s="173"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="177" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="177" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="173"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="177" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="177" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="173"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCB65F-C954-4EA4-BB13-086805C14928}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,81 +6305,347 @@
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="51" style="2" customWidth="1"/>
     <col min="3" max="3" width="72.77734375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="55.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="180" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="E1" s="180" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+    </row>
+    <row r="2" spans="1:7" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="156" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="158"/>
+      <c r="E2" s="156" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="157"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="156" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="E3" s="156" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="157"/>
+      <c r="G3" s="158"/>
+    </row>
+    <row r="4" spans="1:7" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="156" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
+      <c r="E4" s="156" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="163"/>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="161" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-    </row>
-    <row r="6" spans="1:3" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="122" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="124" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="161" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="183" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+    </row>
+    <row r="6" spans="1:7" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="186" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="191" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="192"/>
+      <c r="E6" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="186" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="191" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="187" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="193" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="192"/>
+      <c r="E7" s="187" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="193" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="E8" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="180" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+    </row>
+    <row r="13" spans="1:7" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="156" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
+    </row>
+    <row r="14" spans="1:7" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+    </row>
+    <row r="15" spans="1:7" ht="84.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="156" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="183" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+    </row>
+    <row r="17" spans="1:3" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="185" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="186" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="191" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="187" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="193" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="180" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+    </row>
+    <row r="24" spans="1:3" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="156" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="157"/>
+      <c r="C24" s="158"/>
+    </row>
+    <row r="25" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="156" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158"/>
+    </row>
+    <row r="26" spans="1:3" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="156" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="157"/>
+      <c r="C26" s="158"/>
+    </row>
+    <row r="27" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="183" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="185" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="186" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="191" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="187" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="193" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="180" t="s">
+        <v>441</v>
+      </c>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+    </row>
+    <row r="35" spans="1:3" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="156" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" s="157"/>
+      <c r="C35" s="158"/>
+    </row>
+    <row r="36" spans="1:3" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="156" t="s">
+        <v>443</v>
+      </c>
+      <c r="B36" s="157"/>
+      <c r="C36" s="158"/>
+    </row>
+    <row r="37" spans="1:3" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B37" s="157"/>
+      <c r="C37" s="158"/>
+    </row>
+    <row r="38" spans="1:3" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="183" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+    </row>
+    <row r="39" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="186" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="187" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="193" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" s="188"/>
+      <c r="C41" s="189"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="25">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/ZorZap-Risk-Analysis.xlsx
+++ b/docs/ZorZap-Risk-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nassim\Desktop\Dev\C#\ZorZap\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535C58B6-DD46-406C-B1D3-F9CF97518D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77146F81-E1B2-4C3F-BAF3-F60907FB2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="856" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide risk management" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="448">
   <si>
     <t>ATELIERS</t>
   </si>
@@ -1965,12 +1965,15 @@
       <t xml:space="preserve"> Moyen</t>
     </r>
   </si>
+  <si>
+    <t>NE PAS OUBLIER LE DICT, LE SOCLE DE SECURITE ET LA GRAVITE / RESIDUELLE DES ER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2123,6 +2126,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
@@ -2970,7 +2979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3379,45 +3388,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3448,13 +3418,13 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3478,17 +3448,8 @@
     <xf numFmtId="0" fontId="16" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3503,12 +3464,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3520,6 +3475,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4384,7 +4396,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="86" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -4427,7 +4439,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4472,7 +4484,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="180" t="s">
         <v>216</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -4483,7 +4495,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="69" t="s">
         <v>225</v>
       </c>
@@ -4532,7 +4544,7 @@
   </sheetPr>
   <dimension ref="B3:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -4545,29 +4557,29 @@
       <c r="B3"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F6" s="154" t="s">
+      <c r="F6" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="S6" s="152" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="S6" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="T6" s="153"/>
+      <c r="T6" s="183"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4586,7 +4598,7 @@
   </sheetPr>
   <dimension ref="B4:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -4624,7 +4636,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5171,7 +5183,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5462,314 +5474,314 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="146" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="146" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="172" t="s">
+      <c r="E2" s="159" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159" t="s">
+      <c r="G2" s="146"/>
+      <c r="H2" s="146" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="152" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="153" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="151" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166" t="s">
+      <c r="G3" s="153"/>
+      <c r="H3" s="153" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="152" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="153" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="151" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="166" t="s">
+      <c r="G4" s="154"/>
+      <c r="H4" s="153" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="152" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="153" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="151" t="s">
         <v>370</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="166" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="153" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="148" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="158" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="159" t="s">
+      <c r="D6" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="170" t="s">
+      <c r="E6" s="157" t="s">
         <v>371</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="171"/>
-      <c r="H6" s="166" t="s">
+      <c r="G6" s="158"/>
+      <c r="H6" s="153" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="146" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="159" t="s">
+      <c r="F7" s="146" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159" t="s">
+      <c r="G7" s="146"/>
+      <c r="H7" s="146" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="153" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="153" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E8" s="164" t="s">
+      <c r="E8" s="151" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="167"/>
-      <c r="H8" s="166" t="s">
+      <c r="G8" s="154"/>
+      <c r="H8" s="153" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="153" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="151" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="166" t="s">
+      <c r="G9" s="154"/>
+      <c r="H9" s="153" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="157" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="156" t="s">
         <v>363</v>
       </c>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="157" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="157" t="s">
         <v>381</v>
       </c>
-      <c r="G10" s="170"/>
-      <c r="H10" s="164" t="s">
+      <c r="G10" s="157"/>
+      <c r="H10" s="151" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="146" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="146" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="159" t="s">
         <v>376</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F11" s="146" t="s">
         <v>380</v>
       </c>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="146" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="153" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="153" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="147" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="164" t="s">
+      <c r="E12" s="151" t="s">
         <v>377</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160" t="s">
+      <c r="G12" s="147"/>
+      <c r="H12" s="147" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="153" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160" t="s">
+      <c r="G13" s="147"/>
+      <c r="H13" s="147" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="155" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="146" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="164" t="s">
+      <c r="E14" s="151" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="151" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5809,16 +5821,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="179" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5836,10 +5848,10 @@
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="148"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -5855,10 +5867,10 @@
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="148"/>
+      <c r="G3" s="178"/>
     </row>
     <row r="4" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -5874,10 +5886,10 @@
       <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="178"/>
     </row>
     <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -5893,10 +5905,10 @@
       <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="148"/>
+      <c r="G5" s="178"/>
     </row>
     <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
@@ -5908,10 +5920,10 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="148"/>
+      <c r="G6" s="178"/>
     </row>
     <row r="7" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="149"/>
+      <c r="A7" s="179"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5921,10 +5933,10 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="148"/>
+      <c r="G7" s="178"/>
     </row>
     <row r="8" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="149"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -5932,10 +5944,10 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="148"/>
+      <c r="G8" s="178"/>
     </row>
     <row r="9" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="149"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
@@ -5943,10 +5955,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="148"/>
+      <c r="G9" s="178"/>
     </row>
     <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="149"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
@@ -5954,15 +5966,15 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="148"/>
+      <c r="G10" s="178"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="3"/>
@@ -6044,244 +6056,244 @@
       <c r="D1" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="162" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="163"/>
     </row>
     <row r="2" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="164" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="164" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="164" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="173"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="3" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="164" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="173"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="164" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="164" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="164" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="164" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="1:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="164" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="177" t="s">
+      <c r="E5" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="164" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="164" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="164" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="164" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="164" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="173"/>
+      <c r="F6" s="160"/>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="164" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="174"/>
+      <c r="F7" s="161"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="165" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="164" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="164" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="173"/>
+      <c r="F8" s="160"/>
     </row>
     <row r="9" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="164" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="164" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D9" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F9" s="173"/>
+      <c r="F9" s="160"/>
     </row>
     <row r="10" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="164" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="164" t="s">
         <v>404</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F10" s="173"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="164" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="177" t="s">
+      <c r="D11" s="164" t="s">
         <v>409</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F11" s="173"/>
+      <c r="F11" s="160"/>
     </row>
     <row r="12" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="164" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="164" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="164" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F12" s="173"/>
+      <c r="F12" s="160"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="164" t="s">
         <v>352</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="164" t="s">
         <v>407</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="164" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="173"/>
+      <c r="F13" s="160"/>
     </row>
     <row r="14" spans="1:6" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="164" t="s">
         <v>412</v>
       </c>
-      <c r="E14" s="177" t="s">
+      <c r="E14" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="F14" s="173"/>
+      <c r="F14" s="160"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -6313,329 +6325,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="186" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="E1" s="186" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
     </row>
     <row r="2" spans="1:7" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="188" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="E2" s="188" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="188" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="E3" s="156" t="s">
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="E3" s="188" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="158"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="188" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="E4" s="156" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="E4" s="188" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="183" t="s">
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="1:7" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="170" t="s">
         <v>419</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="173" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="185" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="170" t="s">
         <v>428</v>
       </c>
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="173" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="171" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="175" t="s">
         <v>421</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="187" t="s">
+      <c r="D7" s="174"/>
+      <c r="E7" s="171" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="G7" s="193" t="s">
+      <c r="G7" s="175" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="E8" s="182" t="s">
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
+      <c r="E8" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
     </row>
     <row r="12" spans="1:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="186" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
     </row>
     <row r="13" spans="1:7" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="188" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="190"/>
     </row>
     <row r="14" spans="1:7" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="188" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="190"/>
     </row>
     <row r="15" spans="1:7" ht="84.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="188" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="190"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
     </row>
     <row r="17" spans="1:3" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="169" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="170" t="s">
         <v>435</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="173" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="171" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="175" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
     </row>
     <row r="23" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="186" t="s">
         <v>440</v>
       </c>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
     </row>
     <row r="24" spans="1:3" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="188" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
     </row>
     <row r="25" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="188" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
     </row>
     <row r="26" spans="1:3" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="188" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="169" t="s">
         <v>433</v>
       </c>
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="170" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="173" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="171" t="s">
         <v>434</v>
       </c>
-      <c r="B29" s="190" t="s">
+      <c r="B29" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="175" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="193"/>
     </row>
     <row r="34" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="186" t="s">
         <v>441</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
     </row>
     <row r="35" spans="1:3" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="188" t="s">
         <v>442</v>
       </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="190"/>
     </row>
     <row r="36" spans="1:3" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="188" t="s">
         <v>443</v>
       </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="190"/>
     </row>
     <row r="37" spans="1:3" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="188" t="s">
         <v>444</v>
       </c>
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="190"/>
     </row>
     <row r="38" spans="1:3" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="183" t="s">
+      <c r="A38" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
     </row>
     <row r="39" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="185" t="s">
+      <c r="A39" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="170" t="s">
         <v>445</v>
       </c>
-      <c r="C39" s="191" t="s">
+      <c r="C39" s="173" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="171" t="s">
         <v>418</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="193" t="s">
+      <c r="C40" s="175" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="191" t="s">
         <v>423</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="189"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
@@ -6646,6 +6643,21 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6658,7 +6670,7 @@
   </sheetPr>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6735,10 +6747,10 @@
   <sheetPr>
     <tabColor rgb="FFFF33CC"/>
   </sheetPr>
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6749,11 +6761,11 @@
     <col min="4" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B1" s="26"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>49</v>
       </c>
@@ -6762,7 +6774,7 @@
       </c>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="2:4" ht="134.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>50</v>
       </c>
@@ -6770,8 +6782,14 @@
         <v>52</v>
       </c>
       <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="194" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+    </row>
+    <row r="4" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>45</v>
       </c>
@@ -6779,8 +6797,12 @@
         <v>53</v>
       </c>
       <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+    </row>
+    <row r="5" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>46</v>
       </c>
@@ -6789,7 +6811,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="2:4" ht="134.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="134.4" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>47</v>
       </c>
@@ -6798,7 +6820,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:4" ht="151.19999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -6807,40 +6829,40 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
@@ -6849,7 +6871,11 @@
       <c r="C17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6860,7 +6886,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7321,8 +7347,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
